--- a/NivelBasico/Módulo 6 - Funciones Matemáticas.xlsx
+++ b/NivelBasico/Módulo 6 - Funciones Matemáticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Nik Denilson\Cursos\EXCEL\NivelBasico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699388E-5BA5-46BD-8D0D-784B4856F994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADAE99D-B398-475A-837E-A0FDD966611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="14" r:id="rId1"/>
@@ -5672,7 +5672,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
@@ -13465,10 +13465,8 @@
   </sheetPr>
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
